--- a/lookup_records/excel/BCP/Ht_Wt_Worksheet.xlsx
+++ b/lookup_records/excel/BCP/Ht_Wt_Worksheet.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaur\Google Drive\Coding\Python\2021-USMC-Calculator-Website\lookup_records\excel\BCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D8FF5-6623-4CBB-A253-89C864E5AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5CD212-CB63-416A-A81E-AA66AD5AD73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1800" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Male" sheetId="2" r:id="rId1"/>
     <sheet name="Female" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -85,391 +96,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>52"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>53"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>54"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>55"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>56"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>57''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>58"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>59"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>60"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>61"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>62"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>63"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>64"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>65"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>66"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>67"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>68"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>69"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>70"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>71"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>72"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>73"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>74"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>75"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>76"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>77"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>78"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>79"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>80"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>81"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>82"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>83"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>84"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>85"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF261F2F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>86"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="10.5"/>
         <color rgb="FF261F2F"/>
@@ -490,14 +116,892 @@
     </r>
   </si>
   <si>
-    <t>57'</t>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>basic_ht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>73</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>wt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>basic_ht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>wt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>markdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"You are within height and weight standards"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>overweight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>basic_ht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>73</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>wt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>basic_ht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>wt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>markdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"You are underweight"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>basic_ht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>wt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>basic_ht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>wt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>overweight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -558,13 +1062,61 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -594,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -621,6 +1173,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -971,9 +1529,11 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="111.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -995,9 +1555,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>52</v>
       </c>
       <c r="B3" s="4">
         <v>106</v>
@@ -1005,10 +1565,14 @@
       <c r="C3" s="5">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+      <c r="E3" t="str">
+        <f>CONCATENATE("If basic_ht == ",A3," and ",C3," &lt;= wt &lt;= ",B3," or basic_ht == ")</f>
+        <v xml:space="preserve">If basic_ht == 52 and 73 &lt;= wt &lt;= 106 or basic_ht == </v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>53</v>
       </c>
       <c r="B4" s="6">
         <v>110</v>
@@ -1017,9 +1581,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
+    <row r="5" spans="1:14" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>54</v>
       </c>
       <c r="B5" s="6">
         <v>114</v>
@@ -1028,9 +1592,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
+    <row r="6" spans="1:14" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>55</v>
       </c>
       <c r="B6" s="6">
         <v>118</v>
@@ -1039,9 +1603,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>56</v>
       </c>
       <c r="B7" s="4">
         <v>122</v>
@@ -1050,9 +1614,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>57</v>
       </c>
       <c r="B8" s="4">
         <v>127</v>
@@ -1061,9 +1625,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>58</v>
       </c>
       <c r="B9" s="6">
         <v>131</v>
@@ -1071,10 +1635,19 @@
       <c r="C9" s="7">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>59</v>
       </c>
       <c r="B10" s="6">
         <v>136</v>
@@ -1082,10 +1655,19 @@
       <c r="C10" s="6">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>60</v>
       </c>
       <c r="B11" s="4">
         <v>141</v>
@@ -1093,10 +1675,19 @@
       <c r="C11" s="6">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>61</v>
       </c>
       <c r="B12" s="4">
         <v>145</v>
@@ -1104,10 +1695,19 @@
       <c r="C12" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>62</v>
       </c>
       <c r="B13" s="4">
         <v>150</v>
@@ -1115,10 +1715,19 @@
       <c r="C13" s="6">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>63</v>
       </c>
       <c r="B14" s="4">
         <v>155</v>
@@ -1126,10 +1735,19 @@
       <c r="C14" s="6">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>64</v>
       </c>
       <c r="B15" s="4">
         <v>160</v>
@@ -1137,10 +1755,19 @@
       <c r="C15" s="4">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>65</v>
       </c>
       <c r="B16" s="4">
         <v>165</v>
@@ -1148,10 +1775,19 @@
       <c r="C16" s="4">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>66</v>
       </c>
       <c r="B17" s="4">
         <v>170</v>
@@ -1159,10 +1795,20 @@
       <c r="C17" s="4">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>67</v>
       </c>
       <c r="B18" s="4">
         <v>175</v>
@@ -1170,10 +1816,20 @@
       <c r="C18" s="4">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>68</v>
       </c>
       <c r="B19" s="4">
         <v>180</v>
@@ -1181,10 +1837,20 @@
       <c r="C19" s="4">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>69</v>
       </c>
       <c r="B20" s="4">
         <v>186</v>
@@ -1192,10 +1858,20 @@
       <c r="C20" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>70</v>
       </c>
       <c r="B21" s="4">
         <v>191</v>
@@ -1203,10 +1879,20 @@
       <c r="C21" s="6">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>71</v>
       </c>
       <c r="B22" s="4">
         <v>197</v>
@@ -1214,10 +1900,20 @@
       <c r="C22" s="6">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>72</v>
       </c>
       <c r="B23" s="6">
         <v>202</v>
@@ -1225,10 +1921,20 @@
       <c r="C23" s="4">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>73</v>
       </c>
       <c r="B24" s="6">
         <v>208</v>
@@ -1236,10 +1942,20 @@
       <c r="C24" s="4">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>74</v>
       </c>
       <c r="B25" s="7">
         <v>214</v>
@@ -1247,10 +1963,20 @@
       <c r="C25" s="4">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>75</v>
       </c>
       <c r="B26" s="6">
         <v>220</v>
@@ -1258,10 +1984,20 @@
       <c r="C26" s="4">
         <v>152</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>76</v>
       </c>
       <c r="B27" s="6">
         <v>225</v>
@@ -1269,10 +2005,20 @@
       <c r="C27" s="4">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>77</v>
       </c>
       <c r="B28" s="6">
         <v>231</v>
@@ -1280,10 +2026,20 @@
       <c r="C28" s="4">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>78</v>
       </c>
       <c r="B29" s="6">
         <v>237</v>
@@ -1292,9 +2048,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>79</v>
       </c>
       <c r="B30" s="6">
         <v>244</v>
@@ -1303,9 +2059,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>33</v>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>80</v>
       </c>
       <c r="B31" s="6">
         <v>250</v>
@@ -1314,9 +2070,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>34</v>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>81</v>
       </c>
       <c r="B32" s="6">
         <v>256</v>
@@ -1326,8 +2082,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>35</v>
+      <c r="A33" s="3">
+        <v>82</v>
       </c>
       <c r="B33" s="6">
         <v>263</v>
@@ -1337,8 +2093,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>36</v>
+      <c r="A34" s="3">
+        <v>83</v>
       </c>
       <c r="B34" s="6">
         <v>269</v>
@@ -1348,8 +2104,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>37</v>
+      <c r="A35" s="3">
+        <v>84</v>
       </c>
       <c r="B35" s="6">
         <v>276</v>
@@ -1359,8 +2115,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>38</v>
+      <c r="A36" s="3">
+        <v>85</v>
       </c>
       <c r="B36" s="6">
         <v>283</v>
@@ -1370,8 +2126,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>39</v>
+      <c r="A37" s="3">
+        <v>86</v>
       </c>
       <c r="B37" s="6">
         <v>289</v>
@@ -1382,15 +2138,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1398,9 +2155,10 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="111.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,10 +2166,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1422,9 +2180,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>52</v>
       </c>
       <c r="B3" s="4">
         <v>100</v>
@@ -1433,9 +2191,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+    <row r="4" spans="1:14" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>53</v>
       </c>
       <c r="B4" s="4">
         <v>104</v>
@@ -1444,9 +2202,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
+    <row r="5" spans="1:14" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>54</v>
       </c>
       <c r="B5" s="4">
         <v>108</v>
@@ -1455,9 +2213,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
+    <row r="6" spans="1:14" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>55</v>
       </c>
       <c r="B6" s="4">
         <v>112</v>
@@ -1466,9 +2224,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>56</v>
       </c>
       <c r="B7" s="4">
         <v>115</v>
@@ -1477,9 +2235,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>41</v>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>57</v>
       </c>
       <c r="B8" s="4">
         <v>120</v>
@@ -1487,10 +2245,22 @@
       <c r="C8" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
+      <c r="E8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>58</v>
       </c>
       <c r="B9" s="4">
         <v>124</v>
@@ -1498,10 +2268,22 @@
       <c r="C9" s="6">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>59</v>
       </c>
       <c r="B10" s="4">
         <v>129</v>
@@ -1509,10 +2291,22 @@
       <c r="C10" s="6">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
+      <c r="E10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>60</v>
       </c>
       <c r="B11" s="6">
         <v>133</v>
@@ -1520,10 +2314,22 @@
       <c r="C11" s="6">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>61</v>
       </c>
       <c r="B12" s="6">
         <v>137</v>
@@ -1531,10 +2337,22 @@
       <c r="C12" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>62</v>
       </c>
       <c r="B13" s="4">
         <v>142</v>
@@ -1542,10 +2360,22 @@
       <c r="C13" s="4">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
+      <c r="E13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>63</v>
       </c>
       <c r="B14" s="4">
         <v>146</v>
@@ -1553,10 +2383,22 @@
       <c r="C14" s="4">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>64</v>
       </c>
       <c r="B15" s="4">
         <v>151</v>
@@ -1564,10 +2406,22 @@
       <c r="C15" s="4">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>65</v>
       </c>
       <c r="B16" s="4">
         <v>156</v>
@@ -1577,8 +2431,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
+      <c r="A17" s="3">
+        <v>66</v>
       </c>
       <c r="B17" s="4">
         <v>161</v>
@@ -1588,8 +2442,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
+      <c r="A18" s="3">
+        <v>67</v>
       </c>
       <c r="B18" s="4">
         <v>166</v>
@@ -1599,8 +2453,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
+      <c r="A19" s="3">
+        <v>68</v>
       </c>
       <c r="B19" s="4">
         <v>171</v>
@@ -1610,8 +2464,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
+      <c r="A20" s="3">
+        <v>69</v>
       </c>
       <c r="B20" s="4">
         <v>176</v>
@@ -1621,8 +2475,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
+      <c r="A21" s="3">
+        <v>70</v>
       </c>
       <c r="B21" s="4">
         <v>181</v>
@@ -1632,8 +2486,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
+      <c r="A22" s="3">
+        <v>71</v>
       </c>
       <c r="B22" s="4">
         <v>186</v>
@@ -1643,8 +2497,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
+      <c r="A23" s="3">
+        <v>72</v>
       </c>
       <c r="B23" s="4">
         <v>191</v>
@@ -1654,8 +2508,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
+      <c r="A24" s="3">
+        <v>73</v>
       </c>
       <c r="B24" s="4">
         <v>197</v>
@@ -1665,8 +2519,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
+      <c r="A25" s="3">
+        <v>74</v>
       </c>
       <c r="B25" s="6">
         <v>202</v>
@@ -1676,8 +2530,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
+      <c r="A26" s="3">
+        <v>75</v>
       </c>
       <c r="B26" s="6">
         <v>208</v>
@@ -1687,8 +2541,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
+      <c r="A27" s="3">
+        <v>76</v>
       </c>
       <c r="B27" s="6">
         <v>213</v>
@@ -1698,8 +2552,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
+      <c r="A28" s="3">
+        <v>77</v>
       </c>
       <c r="B28" s="6">
         <v>219</v>
@@ -1709,8 +2563,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
+      <c r="A29" s="3">
+        <v>78</v>
       </c>
       <c r="B29" s="6">
         <v>225</v>
@@ -1720,8 +2574,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
+      <c r="A30" s="3">
+        <v>79</v>
       </c>
       <c r="B30" s="6">
         <v>230</v>
@@ -1731,8 +2585,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>33</v>
+      <c r="A31" s="3">
+        <v>80</v>
       </c>
       <c r="B31" s="6">
         <v>236</v>
@@ -1742,8 +2596,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>34</v>
+      <c r="A32" s="3">
+        <v>81</v>
       </c>
       <c r="B32" s="6">
         <v>242</v>
@@ -1753,8 +2607,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>35</v>
+      <c r="A33" s="3">
+        <v>82</v>
       </c>
       <c r="B33" s="6">
         <v>248</v>
@@ -1764,8 +2618,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>36</v>
+      <c r="A34" s="3">
+        <v>83</v>
       </c>
       <c r="B34" s="6">
         <v>255</v>
@@ -1775,8 +2629,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>37</v>
+      <c r="A35" s="3">
+        <v>84</v>
       </c>
       <c r="B35" s="6">
         <v>261</v>
@@ -1786,8 +2640,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>38</v>
+      <c r="A36" s="3">
+        <v>85</v>
       </c>
       <c r="B36" s="6">
         <v>267</v>
@@ -1797,8 +2651,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>39</v>
+      <c r="A37" s="3">
+        <v>86</v>
       </c>
       <c r="B37" s="6">
         <v>274</v>
